--- a/data/lit_review_data_SP.xlsx
+++ b/data/lit_review_data_SP.xlsx
@@ -16,6 +16,66 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="Z255">
+      <text>
+        <t xml:space="preserve">only a link to an R package that implements the method, but no code to reproduce simulation study
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G254">
+      <text>
+        <t xml:space="preserve">there are three sim studies, I code the first one in section 3.5
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z253">
+      <text>
+        <t xml:space="preserve">there is an R package that implements the method but no code for reproducing the simulation study
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z252">
+      <text>
+        <t xml:space="preserve">couldn't find code for the simulation study only for applying the methods
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G250">
+      <text>
+        <t xml:space="preserve">there is a simulated data set that is used for illustrative purposes but no simulation study
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z249">
+      <text>
+        <t xml:space="preserve">couldn't find code for the simulation study, only mentioning of an R package to apply the method
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G248">
+      <text>
+        <t xml:space="preserve">there are two simulated data sets, I wouldn't count them as simulation study
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G247">
+      <text>
+        <t xml:space="preserve">estimator are compared deterministically with the actual distribution
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="Z244">
+      <text>
+        <t xml:space="preserve">"The program R code is available under the Paper Information link at the Journal's site.", it's not there
+	-Samuel Pawel</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H243">
+      <text>
+        <t xml:space="preserve">the simulation study attempts to study the "rate of convergence" but I think not in the sense of algorithmic/numerical convergence, but mathematical
+	-Samuel Pawel</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="G241">
       <text>
         <t xml:space="preserve">there is a small simulation study to investigate the properties of the sequential probability ratio test
@@ -455,7 +515,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="359">
   <si>
     <t>id</t>
   </si>
@@ -1468,6 +1528,73 @@
   </si>
   <si>
     <t>https://doi.org/10.1037/met0000420</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1952877</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9910</t>
+  </si>
+  <si>
+    <t>one method "iCosso" cannot be used in certain scenarios because it doesn't work for large data sets, tables list that as NA</t>
+  </si>
+  <si>
+    <t>could perhaps be used as an example that didn't even consider one method for some conditions because the method cannot run in reasonable time</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2022.2057860</t>
+  </si>
+  <si>
+    <t>"This estimator, however, were more difficult numerically and in some settings did not show gain compared to the simple FGestimator. The NPMLE had also some instability and therefore it was necessary to report a robust measure of variation for the cases where ρ1 = 0.2 and ρ2 = 10."</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1990767</t>
+  </si>
+  <si>
+    <t>If the covariate balance criterion is not met, then we generate new assignments until we find an assignment that meets the criterion."</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1632</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jrsm.1466</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1037/met0000366</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1037/met0000287</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000412</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000395</t>
+  </si>
+  <si>
+    <t>could be seen as both case-wise or list-wise deletion as only one method
+ showed convergence issues while the others always converged</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2021.1923511</t>
+  </si>
+  <si>
+    <t>some simulations are only performed for "LASSO" but not for "BART" and "causal forest" because these take "a prohibitively large amount of time"</t>
+  </si>
+  <si>
+    <t>reference method</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01621459.2022.2060112</t>
+  </si>
+  <si>
+    <t>it is mentioned that only for k&gt;=20 all methods produce finite prediction intervals which is also apparent in Figure 2 as some methods have no coverage or average prediction set size before that, it's not clear to me whether is impossible to use the method for these k's or whether they did not converge for some repetitions</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/sim.9862</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1604,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1539,6 +1666,22 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1578,7 +1721,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1655,6 +1798,21 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10266,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L134" s="2" t="b">
         <v>1</v>
@@ -16800,6 +16958,992 @@
         <v>86</v>
       </c>
     </row>
+    <row r="242">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="27"/>
+      <c r="E242" s="1"/>
+      <c r="F242" s="1"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K242" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M242" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N242" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O242" s="12"/>
+      <c r="P242" s="13"/>
+      <c r="Q242" s="13"/>
+      <c r="R242" s="12"/>
+      <c r="S242" s="12"/>
+      <c r="T242" s="13"/>
+      <c r="U242" s="13"/>
+      <c r="V242" s="12"/>
+      <c r="W242" s="12"/>
+      <c r="X242" s="13"/>
+      <c r="Y242" s="13"/>
+      <c r="Z242" s="2"/>
+      <c r="AA242" s="3"/>
+      <c r="AB242" s="13"/>
+      <c r="AC242" s="12"/>
+      <c r="AD242" s="14"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B243" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C243" s="28">
+        <v>541.0</v>
+      </c>
+      <c r="D243" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="E243" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M243" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N243" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O243" s="12"/>
+      <c r="P243" s="13"/>
+      <c r="Q243" s="13"/>
+      <c r="R243" s="12"/>
+      <c r="S243" s="12"/>
+      <c r="T243" s="13"/>
+      <c r="U243" s="13"/>
+      <c r="V243" s="12"/>
+      <c r="W243" s="12"/>
+      <c r="X243" s="13"/>
+      <c r="Y243" s="13"/>
+      <c r="Z243" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA243" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB243" s="13"/>
+      <c r="AC243" s="12"/>
+      <c r="AD243" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B244" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C244" s="28">
+        <v>28.0</v>
+      </c>
+      <c r="D244" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E244" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I244" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K244" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N244" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O244" s="12"/>
+      <c r="P244" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="R244" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S244" s="12"/>
+      <c r="T244" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U244" s="13"/>
+      <c r="V244" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W244" s="12"/>
+      <c r="X244" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y244" s="13"/>
+      <c r="Z244" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA244" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB244" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC244" s="12"/>
+      <c r="AD244" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B245" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C245" s="28">
+        <v>544.0</v>
+      </c>
+      <c r="D245" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E245" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K245" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M245" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N245" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O245" s="12"/>
+      <c r="P245" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q245" s="13"/>
+      <c r="R245" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S245" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="T245" s="13"/>
+      <c r="U245" s="13"/>
+      <c r="V245" s="12"/>
+      <c r="W245" s="12"/>
+      <c r="X245" s="13"/>
+      <c r="Y245" s="13"/>
+      <c r="Z245" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA245" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB245" s="13"/>
+      <c r="AC245" s="12"/>
+      <c r="AD245" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B246" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C246" s="28">
+        <v>542.0</v>
+      </c>
+      <c r="D246" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E246" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I246" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M246" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N246" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O246" s="12"/>
+      <c r="P246" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q246" s="13"/>
+      <c r="R246" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S246" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="T246" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="U246" s="13"/>
+      <c r="V246" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W246" s="12"/>
+      <c r="X246" s="13"/>
+      <c r="Y246" s="13"/>
+      <c r="Z246" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA246" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB246" s="13"/>
+      <c r="AC246" s="12"/>
+      <c r="AD246" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C247" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="D247" s="31" t="s">
+        <v>346</v>
+      </c>
+      <c r="E247" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K247" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M247" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N247" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O247" s="12"/>
+      <c r="P247" s="13"/>
+      <c r="Q247" s="13"/>
+      <c r="R247" s="12"/>
+      <c r="S247" s="12"/>
+      <c r="T247" s="13"/>
+      <c r="U247" s="13"/>
+      <c r="V247" s="12"/>
+      <c r="W247" s="12"/>
+      <c r="X247" s="13"/>
+      <c r="Y247" s="13"/>
+      <c r="Z247" s="2"/>
+      <c r="AA247" s="3"/>
+      <c r="AB247" s="13"/>
+      <c r="AC247" s="12"/>
+      <c r="AD247" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B248" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C248" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="D248" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E248" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K248" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M248" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N248" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O248" s="12"/>
+      <c r="P248" s="13"/>
+      <c r="Q248" s="13"/>
+      <c r="R248" s="12"/>
+      <c r="S248" s="12"/>
+      <c r="T248" s="13"/>
+      <c r="U248" s="13"/>
+      <c r="V248" s="12"/>
+      <c r="W248" s="12"/>
+      <c r="X248" s="13"/>
+      <c r="Y248" s="13"/>
+      <c r="Z248" s="2"/>
+      <c r="AA248" s="3"/>
+      <c r="AB248" s="13"/>
+      <c r="AC248" s="12"/>
+      <c r="AD248" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B249" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C249" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="D249" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="E249" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I249" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K249" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M249" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N249" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O249" s="12"/>
+      <c r="P249" s="13"/>
+      <c r="Q249" s="13"/>
+      <c r="R249" s="12"/>
+      <c r="S249" s="12"/>
+      <c r="T249" s="13"/>
+      <c r="U249" s="13"/>
+      <c r="V249" s="12"/>
+      <c r="W249" s="12"/>
+      <c r="X249" s="13"/>
+      <c r="Y249" s="13"/>
+      <c r="Z249" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA249" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB249" s="13"/>
+      <c r="AC249" s="12"/>
+      <c r="AD249" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2021.0</v>
+      </c>
+      <c r="C250" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="D250" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="E250" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K250" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M250" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N250" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O250" s="12"/>
+      <c r="P250" s="13"/>
+      <c r="Q250" s="13"/>
+      <c r="R250" s="12"/>
+      <c r="S250" s="12"/>
+      <c r="T250" s="13"/>
+      <c r="U250" s="13"/>
+      <c r="V250" s="12"/>
+      <c r="W250" s="12"/>
+      <c r="X250" s="13"/>
+      <c r="Y250" s="13"/>
+      <c r="Z250" s="2"/>
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="13"/>
+      <c r="AC250" s="12"/>
+      <c r="AD250" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B251" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="C251" s="28">
+        <v>6.0</v>
+      </c>
+      <c r="D251" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="E251" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I251" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K251" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M251" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N251" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O251" s="12"/>
+      <c r="P251" s="13"/>
+      <c r="Q251" s="13"/>
+      <c r="R251" s="12"/>
+      <c r="S251" s="12"/>
+      <c r="T251" s="13"/>
+      <c r="U251" s="13"/>
+      <c r="V251" s="12"/>
+      <c r="W251" s="12"/>
+      <c r="X251" s="13"/>
+      <c r="Y251" s="13"/>
+      <c r="Z251" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA251" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB251" s="13"/>
+      <c r="AC251" s="12"/>
+      <c r="AD251" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B252" s="1">
+        <v>2022.0</v>
+      </c>
+      <c r="C252" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="D252" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E252" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I252" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K252" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M252" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N252" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O252" s="12"/>
+      <c r="P252" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q252" s="13"/>
+      <c r="R252" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S252" s="12"/>
+      <c r="T252" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U252" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="V252" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="W252" s="12"/>
+      <c r="X252" s="13"/>
+      <c r="Y252" s="13"/>
+      <c r="Z252" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA252" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB252" s="13"/>
+      <c r="AC252" s="12"/>
+      <c r="AD252" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B253" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C253" s="28">
+        <v>541.0</v>
+      </c>
+      <c r="D253" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="E253" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I253" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K253" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M253" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N253" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O253" s="12"/>
+      <c r="P253" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q253" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="R253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S253" s="2"/>
+      <c r="T253" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U253" s="13"/>
+      <c r="V253" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W253" s="12"/>
+      <c r="X253" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y253" s="13"/>
+      <c r="Z253" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA253" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB253" s="13"/>
+      <c r="AC253" s="12"/>
+      <c r="AD253" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B254" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C254" s="28">
+        <v>544.0</v>
+      </c>
+      <c r="D254" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="E254" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I254" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K254" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M254" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N254" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O254" s="2"/>
+      <c r="P254" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q254" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="R254" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S254" s="2"/>
+      <c r="T254" s="13"/>
+      <c r="U254" s="13"/>
+      <c r="V254" s="12"/>
+      <c r="W254" s="12"/>
+      <c r="X254" s="13"/>
+      <c r="Y254" s="13"/>
+      <c r="Z254" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA254" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB254" s="13"/>
+      <c r="AC254" s="12"/>
+      <c r="AD254" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B255" s="1">
+        <v>2023.0</v>
+      </c>
+      <c r="C255" s="28">
+        <v>24.0</v>
+      </c>
+      <c r="D255" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="E255" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I255" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K255" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M255" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N255" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O255" s="12"/>
+      <c r="P255" s="13"/>
+      <c r="Q255" s="13"/>
+      <c r="R255" s="12"/>
+      <c r="S255" s="12"/>
+      <c r="T255" s="13"/>
+      <c r="U255" s="13"/>
+      <c r="V255" s="12"/>
+      <c r="W255" s="12"/>
+      <c r="X255" s="13"/>
+      <c r="Y255" s="13"/>
+      <c r="Z255" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA255" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB255" s="13"/>
+      <c r="AC255" s="12"/>
+      <c r="AD255" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="27"/>
+      <c r="E256" s="30"/>
+      <c r="F256" s="1"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K256" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M256" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N256" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O256" s="12"/>
+      <c r="P256" s="13"/>
+      <c r="Q256" s="13"/>
+      <c r="R256" s="12"/>
+      <c r="S256" s="12"/>
+      <c r="T256" s="13"/>
+      <c r="U256" s="13"/>
+      <c r="V256" s="12"/>
+      <c r="W256" s="12"/>
+      <c r="X256" s="13"/>
+      <c r="Y256" s="13"/>
+      <c r="Z256" s="2"/>
+      <c r="AA256" s="3"/>
+      <c r="AB256" s="13"/>
+      <c r="AC256" s="12"/>
+      <c r="AD256" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="H2:K2"/>
@@ -16812,31 +17956,31 @@
     <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X4:X256">
       <formula1>"reference method,reference other study,reasoning,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F256">
       <formula1>"SP,FB,BS,AL"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H241 Z4:AA241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H256 Z4:AA256">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T4:T241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="T4:T256">
       <formula1>"case-wise deletion,list-wise deletion,other deletion,imputation,additional simulations,method replacement,other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R241 V4:V241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="R4:R256 V4:V256">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G256">
       <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E256">
       <formula1>"PM,SiM,JASA,RSM,EM"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4:P241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="P4:P256">
       <formula1>"not quantified,missing proportion (total),missing proportion (per method),missing proportion (per method/condition),max missing proportion (per method),max missing proportion (per method/condition),other,zero missingness"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD241">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AD4:AD256">
       <formula1>"high,medium,low"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17066,8 +18210,21 @@
     <hyperlink r:id="rId224" ref="D239"/>
     <hyperlink r:id="rId225" ref="D240"/>
     <hyperlink r:id="rId226" ref="D241"/>
+    <hyperlink r:id="rId227" ref="D243"/>
+    <hyperlink r:id="rId228" ref="D244"/>
+    <hyperlink r:id="rId229" ref="D245"/>
+    <hyperlink r:id="rId230" ref="D246"/>
+    <hyperlink r:id="rId231" ref="D247"/>
+    <hyperlink r:id="rId232" ref="D248"/>
+    <hyperlink r:id="rId233" ref="D249"/>
+    <hyperlink r:id="rId234" ref="D250"/>
+    <hyperlink r:id="rId235" ref="D251"/>
+    <hyperlink r:id="rId236" ref="D252"/>
+    <hyperlink r:id="rId237" ref="D253"/>
+    <hyperlink r:id="rId238" ref="D254"/>
+    <hyperlink r:id="rId239" ref="D255"/>
   </hyperlinks>
-  <drawing r:id="rId227"/>
-  <legacyDrawing r:id="rId228"/>
+  <drawing r:id="rId240"/>
+  <legacyDrawing r:id="rId241"/>
 </worksheet>
 </file>